--- a/Messy Data Tidied.xlsx
+++ b/Messy Data Tidied.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\my_qa_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735D9FE9-0C09-4290-A903-F42A45CC940C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E1DD53-DECC-420E-A930-D4D1744445DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{740071D9-ED3B-4DBF-8059-FCE9067D29F8}"/>
   </bookViews>
